--- a/data/firstData.xlsx
+++ b/data/firstData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Coding/optimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Coding/optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CDA41D-60BA-544A-8514-5891E16940E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7B3F6-A7BB-9F4C-BD86-BAC727B85F06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16320" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="3" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
   <si>
     <t>dc1</t>
   </si>
@@ -382,23 +382,19 @@
   </si>
   <si>
     <t>5f9336b8-41c6-481a-8e86-d06777dfafab</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,7 +411,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,12 +421,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,23 +476,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -819,329 +808,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5504485-04A0-4EFE-902B-4833CC7B7514}">
-  <dimension ref="B1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>118</v>
+      </c>
+      <c r="C1">
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.97</v>
+      </c>
+      <c r="E3">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1.306</v>
+      </c>
+      <c r="D7">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E7">
+        <v>1.135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.26</v>
+      </c>
+      <c r="E11">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>0.22</v>
+      </c>
+      <c r="D12">
+        <v>0.159</v>
+      </c>
+      <c r="E12">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.73</v>
+      </c>
+      <c r="E13">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F1">
+      <c r="C14">
+        <v>0.125</v>
+      </c>
+      <c r="D14">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="E2">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="F2">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="E3">
-        <v>0.97</v>
-      </c>
-      <c r="F3">
-        <v>0.79800000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="E4">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="F4">
-        <v>0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E5">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F5">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E6">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F6">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>1.306</v>
-      </c>
-      <c r="E7">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="F7">
-        <v>1.135</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E8">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="F8">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="E9">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="F9">
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="E10">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="F10">
-        <v>0.51100000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.26</v>
-      </c>
-      <c r="F11">
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>0.22</v>
-      </c>
-      <c r="E12">
-        <v>0.159</v>
-      </c>
-      <c r="F12">
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="E13">
-        <v>0.73</v>
-      </c>
-      <c r="F13">
-        <v>0.75900000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
         <v>0.125</v>
       </c>
-      <c r="E14">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="E15">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="F15">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D16">
-        <v>0.125</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="E16">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="F16">
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C17">
+        <v>2.056</v>
+      </c>
       <c r="D17">
-        <v>2.056</v>
+        <v>2.0960000000000001</v>
       </c>
       <c r="E17">
-        <v>2.0960000000000001</v>
-      </c>
-      <c r="F17">
         <v>2.13</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="C18">
+        <v>3.944</v>
+      </c>
       <c r="D18">
-        <v>3.944</v>
+        <v>3.9889999999999999</v>
       </c>
       <c r="E18">
-        <v>3.9889999999999999</v>
-      </c>
-      <c r="F18">
         <v>4.1289999999999996</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f>SUM(C2:C18)</f>
+        <v>12.084999999999997</v>
+      </c>
       <c r="D19">
         <f>SUM(D2:D18)</f>
-        <v>12.084999999999997</v>
+        <v>12.219000000000001</v>
       </c>
       <c r="E19">
         <f>SUM(E2:E18)</f>
-        <v>12.219000000000001</v>
-      </c>
-      <c r="F19">
-        <f>SUM(F2:F18)</f>
         <v>12.557999999999998</v>
       </c>
     </row>
@@ -1152,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED73F0C5-8A21-425D-BBE1-E984512EBBFA}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1164,278 +1156,278 @@
     <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>118</v>
+      </c>
+      <c r="C1">
+        <v>16</v>
       </c>
       <c r="D1">
+        <v>28</v>
+      </c>
+      <c r="E1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>5.4409999999999998</v>
+      </c>
+      <c r="D2">
+        <v>7.8739999999999997</v>
+      </c>
+      <c r="E2">
+        <v>4.758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.44</v>
+      </c>
+      <c r="E3">
+        <v>2.0739999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D4">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E5">
+        <v>1.0609999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>2.7090000000000001</v>
+      </c>
+      <c r="D8">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="E8">
+        <v>3.3140000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="E11">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.02</v>
+      </c>
+      <c r="E12">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1">
-        <v>28</v>
-      </c>
-      <c r="F1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2">
-        <v>5.4409999999999998</v>
-      </c>
-      <c r="E2">
-        <v>7.8739999999999997</v>
-      </c>
-      <c r="F2">
-        <v>4.758</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0.44</v>
-      </c>
-      <c r="F3">
-        <v>2.0739999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="E4">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="F5">
-        <v>1.0609999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="F6">
-        <v>0.70599999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E7">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>2.7090000000000001</v>
-      </c>
-      <c r="E8">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="F8">
-        <v>3.3140000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E9">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F9">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F10">
-        <v>0.61599999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="E11">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="F11">
-        <v>1.016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E12">
-        <v>0.02</v>
-      </c>
-      <c r="F12">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13">
+      <c r="C14">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D14">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F13">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="E14">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="F14">
-        <v>0.28899999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="D15">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E15">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="C16">
+        <v>3.911</v>
+      </c>
       <c r="D16">
-        <v>3.911</v>
+        <v>3.823</v>
       </c>
       <c r="E16">
-        <v>3.823</v>
-      </c>
-      <c r="F16">
         <v>3.8079999999999998</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>SUM(C2:C16)</f>
+        <v>16.439</v>
+      </c>
       <c r="D17">
-        <f>SUM(D2:D16)</f>
-        <v>16.439</v>
+        <f t="shared" ref="D17:E17" si="0">SUM(D2:D16)</f>
+        <v>17.59</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:F17" si="0">SUM(E2:E16)</f>
-        <v>17.59</v>
-      </c>
-      <c r="F17">
         <f t="shared" si="0"/>
         <v>17.863999999999997</v>
       </c>
@@ -1447,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CACA22-017F-4E16-97D6-2BA6303A8EB1}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1459,246 +1451,249 @@
     <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>118</v>
+      </c>
+      <c r="C1">
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E1">
-        <v>28</v>
-      </c>
-      <c r="F1">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="C2">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="D2">
-        <v>6.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F2">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C3">
+        <v>0.437</v>
+      </c>
       <c r="D3">
-        <v>0.437</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="E3">
         <v>0.47299999999999998</v>
       </c>
-      <c r="F3">
-        <v>0.47299999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="C4">
+        <v>8.3789999999999996</v>
+      </c>
       <c r="D4">
-        <v>8.3789999999999996</v>
+        <v>4.9370000000000003</v>
       </c>
       <c r="E4">
-        <v>4.9370000000000003</v>
-      </c>
-      <c r="F4">
         <v>4.9029999999999996</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="C5">
+        <v>0.29499999999999998</v>
+      </c>
       <c r="D5">
-        <v>0.29499999999999998</v>
+        <v>0.312</v>
       </c>
       <c r="E5">
-        <v>0.312</v>
-      </c>
-      <c r="F5">
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="C6">
+        <v>0.31</v>
+      </c>
       <c r="D6">
-        <v>0.31</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="E6">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="F6">
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="C7">
+        <v>6.3730000000000002</v>
+      </c>
       <c r="D7">
-        <v>6.3730000000000002</v>
+        <v>5.5780000000000003</v>
       </c>
       <c r="E7">
-        <v>5.5780000000000003</v>
-      </c>
-      <c r="F7">
         <v>6.0910000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="C8">
+        <v>4.5999999999999999E-2</v>
+      </c>
       <c r="D8">
-        <v>4.5999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E8">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F8">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="C9">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D9">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="E9">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F9">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="C10">
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="D10">
-        <v>4.9000000000000002E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E10">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="F10">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
         <v>60</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F11">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="C12">
+        <v>1.3029999999999999</v>
+      </c>
       <c r="D12">
-        <v>1.3029999999999999</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="E12">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="F12">
         <v>0.84699999999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="C13">
+        <v>5.7000000000000002E-2</v>
+      </c>
       <c r="D13">
-        <v>5.7000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F13">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="C14">
+        <v>1.6060000000000001</v>
+      </c>
       <c r="D14">
-        <v>1.6060000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="E14">
-        <v>1.74</v>
-      </c>
-      <c r="F14">
         <v>1.149</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f>SUM(C2:C14)</f>
+        <v>18.899000000000001</v>
+      </c>
       <c r="D15">
-        <f>SUM(D2:D14)</f>
-        <v>18.899000000000001</v>
+        <f t="shared" ref="D15:E15" si="0">SUM(D2:D14)</f>
+        <v>14.675000000000001</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:F15" si="0">SUM(E2:E14)</f>
-        <v>14.675000000000001</v>
-      </c>
-      <c r="F15">
         <f t="shared" si="0"/>
         <v>14.296999999999997</v>
       </c>
@@ -1713,328 +1708,331 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249020DB-3C9E-4E48-934B-B39BE7E8B1DC}">
-  <dimension ref="B1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>118</v>
+      </c>
+      <c r="C1">
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E1">
-        <v>28</v>
-      </c>
-      <c r="F1">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C2">
+        <v>5.2069999999999999</v>
+      </c>
       <c r="D2">
-        <v>5.2069999999999999</v>
+        <v>3.6520000000000001</v>
       </c>
       <c r="E2">
-        <v>3.6520000000000001</v>
-      </c>
-      <c r="F2">
         <v>4.319</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="C3">
+        <v>0.41599999999999998</v>
+      </c>
       <c r="D3">
-        <v>0.41599999999999998</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="E3">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="F3">
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C4">
+        <v>0.23300000000000001</v>
+      </c>
       <c r="D4">
-        <v>0.23300000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="E4">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="F4">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="C5">
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="D5">
-        <v>4.9000000000000002E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E5">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F5">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="C6">
+        <v>2.11</v>
+      </c>
       <c r="D6">
-        <v>2.11</v>
+        <v>2.1680000000000001</v>
       </c>
       <c r="E6">
-        <v>2.1680000000000001</v>
-      </c>
-      <c r="F6">
         <v>2.1059999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="C7">
+        <v>2.9000000000000001E-2</v>
+      </c>
       <c r="D7">
-        <v>2.9000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F7">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="B8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="6" t="s">
         <v>99</v>
       </c>
+      <c r="C8">
+        <v>0.20599999999999999</v>
+      </c>
       <c r="D8">
-        <v>0.20599999999999999</v>
+        <v>0.315</v>
       </c>
       <c r="E8">
-        <v>0.315</v>
-      </c>
-      <c r="F8">
         <v>0.374</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="B9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="6" t="s">
         <v>101</v>
       </c>
+      <c r="C9">
+        <v>3.722</v>
+      </c>
       <c r="D9">
-        <v>3.722</v>
+        <v>3.415</v>
       </c>
       <c r="E9">
-        <v>3.415</v>
-      </c>
-      <c r="F9">
         <v>3.3290000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="B10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="C10">
+        <v>2.9990000000000001</v>
+      </c>
       <c r="D10">
-        <v>2.9990000000000001</v>
+        <v>2.5670000000000002</v>
       </c>
       <c r="E10">
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="F10">
         <v>3.4220000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="C11">
+        <v>0.60799999999999998</v>
+      </c>
       <c r="D11">
-        <v>0.60799999999999998</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="E11">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="F11">
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="C12">
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="D12">
-        <v>9.1999999999999998E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E12">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="F12">
         <v>0.151</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="C13">
+        <v>0.47099999999999997</v>
+      </c>
       <c r="D13">
-        <v>0.47099999999999997</v>
+        <v>0.62</v>
       </c>
       <c r="E13">
-        <v>0.62</v>
-      </c>
-      <c r="F13">
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="C14">
+        <v>0.41199999999999998</v>
+      </c>
       <c r="D14">
-        <v>0.41199999999999998</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="E14">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="F14">
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="C15">
+        <v>0.41399999999999998</v>
+      </c>
       <c r="D15">
-        <v>0.41399999999999998</v>
+        <v>0.248</v>
       </c>
       <c r="E15">
-        <v>0.248</v>
-      </c>
-      <c r="F15">
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="C16">
+        <v>4.032</v>
+      </c>
       <c r="D16">
-        <v>4.032</v>
+        <v>8.5850000000000009</v>
       </c>
       <c r="E16">
-        <v>8.5850000000000009</v>
-      </c>
-      <c r="F16">
         <v>4.2480000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="C17">
+        <v>2.1000000000000001E-2</v>
+      </c>
       <c r="D17">
-        <v>2.1000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E17">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F17">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="C18">
+        <v>2.2080000000000002</v>
+      </c>
       <c r="D18">
-        <v>2.2080000000000002</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="E18">
-        <v>2.6779999999999999</v>
-      </c>
-      <c r="F18">
         <v>1.8879999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f>SUM(C2:C18)</f>
+        <v>23.228999999999999</v>
+      </c>
       <c r="D19">
-        <f>SUM(D2:D18)</f>
-        <v>23.228999999999999</v>
+        <f t="shared" ref="D19:E19" si="0">SUM(D2:D18)</f>
+        <v>26.062000000000001</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:F19" si="0">SUM(E2:E18)</f>
-        <v>26.062000000000001</v>
-      </c>
-      <c r="F19">
         <f t="shared" si="0"/>
         <v>22.072000000000003</v>
       </c>

--- a/data/firstData.xlsx
+++ b/data/firstData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Coding/optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7B3F6-A7BB-9F4C-BD86-BAC727B85F06}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BADF0FA-6D70-B844-BB7D-D5A16223542C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" activeTab="3" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -810,12 +810,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5504485-04A0-4EFE-902B-4833CC7B7514}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
@@ -1710,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249020DB-3C9E-4E48-934B-B39BE7E8B1DC}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2029,11 +2030,11 @@
         <v>23.228999999999999</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:E19" si="0">SUM(D2:D18)</f>
+        <f>SUM(D2:D18)</f>
         <v>26.062000000000001</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D19:E19" si="0">SUM(E2:E18)</f>
         <v>22.072000000000003</v>
       </c>
     </row>

--- a/data/firstData.xlsx
+++ b/data/firstData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Coding/optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BADF0FA-6D70-B844-BB7D-D5A16223542C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639F2A12-9688-4548-8403-C9DA9C5B4C6E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="2" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
   <si>
     <t>dc1</t>
   </si>
@@ -385,6 +385,15 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>none1</t>
+  </si>
+  <si>
+    <t>none2</t>
+  </si>
+  <si>
+    <t>none3</t>
   </si>
 </sst>
 </file>
@@ -810,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5504485-04A0-4EFE-902B-4833CC7B7514}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1148,13 +1157,14 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1359,7 +1369,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="B13" s="7" t="s">
         <v>59</v>
       </c>
@@ -1391,7 +1403,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="B15" s="7" t="s">
         <v>61</v>
       </c>
@@ -1442,12 +1456,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CACA22-017F-4E16-97D6-2BA6303A8EB1}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1623,7 +1638,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
@@ -1712,11 +1729,12 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
@@ -2034,7 +2052,7 @@
         <v>26.062000000000001</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="D19:E19" si="0">SUM(E2:E18)</f>
+        <f t="shared" ref="E19" si="0">SUM(E2:E18)</f>
         <v>22.072000000000003</v>
       </c>
     </row>

--- a/data/firstData.xlsx
+++ b/data/firstData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Coding/optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639F2A12-9688-4548-8403-C9DA9C5B4C6E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635698E5-7938-014D-B70D-7916E260717F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="2" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="1" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="120">
   <si>
     <t>dc1</t>
   </si>
@@ -169,12 +169,6 @@
   </si>
   <si>
     <t>a55d2136-ecd2-4d08-9bbf-8c87f0aad672</t>
-  </si>
-  <si>
-    <t>gsbmymohqweb09</t>
-  </si>
-  <si>
-    <t>4b058db3-7180-4e01-be98-1ce508d1045c</t>
   </si>
   <si>
     <t>mymodockerhqnode03</t>
@@ -819,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5504485-04A0-4EFE-902B-4833CC7B7514}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -835,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1">
         <v>16</v>
@@ -1154,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED73F0C5-8A21-425D-BBE1-E984512EBBFA}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1172,7 +1166,7 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1">
         <v>16</v>
@@ -1270,17 +1264,20 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C7">
-        <v>2.1999999999999999E-2</v>
+        <v>2.7090000000000001</v>
       </c>
       <c r="D7">
-        <v>3.1E-2</v>
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="E7">
+        <v>3.3140000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1291,13 +1288,13 @@
         <v>50</v>
       </c>
       <c r="C8">
-        <v>2.7090000000000001</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D8">
-        <v>2.2040000000000002</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E8">
-        <v>3.3140000000000001</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1308,13 +1305,13 @@
         <v>52</v>
       </c>
       <c r="C9">
-        <v>5.1999999999999998E-2</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="D9">
-        <v>6.4000000000000001E-2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E9">
-        <v>5.7000000000000002E-2</v>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1325,13 +1322,13 @@
         <v>54</v>
       </c>
       <c r="C10">
-        <v>0.61899999999999999</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="D10">
-        <v>0.56999999999999995</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="E10">
-        <v>0.61599999999999999</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1342,108 +1339,91 @@
         <v>56</v>
       </c>
       <c r="C11">
-        <v>1.0469999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D11">
-        <v>0.93100000000000005</v>
+        <v>0.02</v>
       </c>
       <c r="E11">
-        <v>1.016</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C12">
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E12">
-        <v>2.3E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D13">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E13">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>0.46600000000000003</v>
-      </c>
       <c r="D14">
-        <v>0.22800000000000001</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E14">
-        <v>0.28899999999999998</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3.911</v>
       </c>
       <c r="D15">
-        <v>4.2999999999999997E-2</v>
+        <v>3.823</v>
       </c>
       <c r="E15">
-        <v>0.01</v>
+        <v>3.8079999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="C16">
-        <v>3.911</v>
+        <f>SUM(C2:C15)</f>
+        <v>16.416999999999998</v>
       </c>
       <c r="D16">
-        <v>3.823</v>
+        <f>SUM(D2:D15)</f>
+        <v>17.558999999999997</v>
       </c>
       <c r="E16">
-        <v>3.8079999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <f>SUM(C2:C16)</f>
-        <v>16.439</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:E17" si="0">SUM(D2:D16)</f>
-        <v>17.59</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
+        <f>SUM(E2:E15)</f>
         <v>17.863999999999997</v>
       </c>
     </row>
@@ -1456,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CACA22-017F-4E16-97D6-2BA6303A8EB1}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1469,10 +1449,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1">
         <v>16</v>
@@ -1486,10 +1466,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>6.0000000000000001E-3</v>
@@ -1503,10 +1483,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>0.437</v>
@@ -1520,10 +1500,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>8.3789999999999996</v>
@@ -1537,10 +1517,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>0.29499999999999998</v>
@@ -1554,10 +1534,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6">
         <v>0.31</v>
@@ -1571,10 +1551,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>6.3730000000000002</v>
@@ -1588,10 +1568,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>4.5999999999999999E-2</v>
@@ -1605,10 +1585,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>3.7999999999999999E-2</v>
@@ -1622,10 +1602,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>4.9000000000000002E-2</v>
@@ -1639,10 +1619,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1656,10 +1636,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>1.3029999999999999</v>
@@ -1673,10 +1653,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>5.7000000000000002E-2</v>
@@ -1728,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249020DB-3C9E-4E48-934B-B39BE7E8B1DC}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E17"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1741,10 +1721,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1">
         <v>16</v>
@@ -1758,10 +1738,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>5.2069999999999999</v>
@@ -1775,10 +1755,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>0.41599999999999998</v>
@@ -1792,10 +1772,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>0.23300000000000001</v>
@@ -1809,10 +1789,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>4.9000000000000002E-2</v>
@@ -1826,10 +1806,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>2.11</v>
@@ -1843,10 +1823,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>2.9000000000000001E-2</v>
@@ -1860,10 +1840,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <v>0.20599999999999999</v>
@@ -1877,10 +1857,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9">
         <v>3.722</v>
@@ -1894,10 +1874,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10">
         <v>2.9990000000000001</v>
@@ -1911,10 +1891,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <v>0.60799999999999998</v>
@@ -1928,10 +1908,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>9.1999999999999998E-2</v>
@@ -1945,10 +1925,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>0.47099999999999997</v>
@@ -1962,10 +1942,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14">
         <v>0.41199999999999998</v>
@@ -1979,10 +1959,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C15">
         <v>0.41399999999999998</v>
@@ -1996,10 +1976,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C16">
         <v>4.032</v>
@@ -2013,10 +1993,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17">
         <v>2.1000000000000001E-2</v>

--- a/data/firstData.xlsx
+++ b/data/firstData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Coding/optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635698E5-7938-014D-B70D-7916E260717F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E8B3E8-7BF8-7242-BD13-033BCBA268A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="1" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{1AC0D294-ED21-41DD-B61F-C0F05BB4ACE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1151,13 +1151,13 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E16"/>
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
